--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="29">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE    MAYO      2 0 2 2</t>
+  </si>
+  <si>
+    <t>MICH</t>
   </si>
 </sst>
 </file>
@@ -5981,7 +5984,7 @@
     <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="e">
-        <f t="shared" ref="B49:B58" si="2">B48+1</f>
+        <f t="shared" ref="B49:B57" si="2">B48+1</f>
         <v>#REF!</v>
       </c>
       <c r="C49" s="29"/>
@@ -6342,8 +6345,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6472,11 +6475,15 @@
       <c r="E6" s="23">
         <v>54116</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="24">
+        <v>44695</v>
+      </c>
+      <c r="G6" s="25">
+        <v>54116</v>
+      </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
-        <v>54116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,11 +6501,15 @@
       <c r="E7" s="23">
         <v>6018</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="24">
+        <v>44688</v>
+      </c>
+      <c r="G7" s="25">
+        <v>6018</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>6018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6516,11 +6527,15 @@
       <c r="E8" s="23">
         <v>15797</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="24">
+        <v>44687</v>
+      </c>
+      <c r="G8" s="25">
+        <v>15797</v>
+      </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>15797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6538,283 +6553,437 @@
       <c r="E9" s="23">
         <v>1362</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="24">
+        <v>44687</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1362</v>
+      </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
-        <v>1362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44687</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23">
+        <v>19666</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44689</v>
+      </c>
+      <c r="G10" s="25">
+        <v>19666</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44688</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23">
+        <v>24471</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44688</v>
+      </c>
+      <c r="G11" s="25">
+        <v>24471</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>44688</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23">
+        <v>10200</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44689</v>
+      </c>
+      <c r="G12" s="25">
+        <v>10200</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44689</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="23">
+        <v>15259</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44691</v>
+      </c>
+      <c r="G13" s="25">
+        <v>15259</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44689</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="23">
+        <v>10231</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44691</v>
+      </c>
+      <c r="G14" s="25">
+        <v>10231</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44691</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23">
+        <v>516</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44691</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="23">
+        <v>10876</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44694</v>
+      </c>
+      <c r="G16" s="25">
+        <v>10876</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44691</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23">
+        <v>10282</v>
+      </c>
+      <c r="F17" s="24">
+        <v>44694</v>
+      </c>
+      <c r="G17" s="25">
+        <v>10282</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44693</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23">
+        <v>464</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44694</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="23">
+        <v>23516</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44698</v>
+      </c>
+      <c r="G19" s="25">
+        <v>23516</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44694</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="23">
+        <v>8894</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44695</v>
+      </c>
+      <c r="G20" s="25">
+        <v>8894</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44695</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="23">
+        <v>10200</v>
+      </c>
+      <c r="F21" s="24">
+        <v>44696</v>
+      </c>
+      <c r="G21" s="25">
+        <v>10200</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44696</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="23">
+        <v>11179</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44698</v>
+      </c>
+      <c r="G22" s="25">
+        <v>11179</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44698</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="23">
+        <v>11923</v>
+      </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11923</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44698</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <v>410</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44698</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6436</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44699</v>
+      </c>
+      <c r="G25" s="25">
+        <v>6436</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44699</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
+        <v>4445</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7335,16 +7504,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>83427</v>
+        <v>262395</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>5831</v>
+        <v>244334</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>77596</v>
+        <v>18061</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -7388,7 +7557,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="72">
         <f>E59-G59</f>
-        <v>77596</v>
+        <v>18061</v>
       </c>
       <c r="F63" s="73"/>
       <c r="G63" s="74"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="29">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -6345,8 +6345,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6427,11 +6427,15 @@
       <c r="E4" s="18">
         <v>303</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="19">
+        <v>44702</v>
+      </c>
+      <c r="G4" s="20">
+        <v>303</v>
+      </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H58" si="0">E4-G4</f>
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -6783,11 +6787,15 @@
       <c r="E18" s="23">
         <v>464</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="24">
+        <v>44702</v>
+      </c>
+      <c r="G18" s="25">
+        <v>464</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6909,11 +6917,15 @@
       <c r="E23" s="23">
         <v>11923</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="24">
+        <v>44700</v>
+      </c>
+      <c r="G23" s="25">
+        <v>11923</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
-        <v>11923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6931,11 +6943,15 @@
       <c r="E24" s="23">
         <v>410</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="24">
+        <v>44702</v>
+      </c>
+      <c r="G24" s="25">
+        <v>410</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6979,136 +6995,216 @@
       <c r="E26" s="23">
         <v>4445</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="24">
+        <v>44702</v>
+      </c>
+      <c r="G26" s="25">
+        <v>4445</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>4445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44700</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="23">
+        <v>12050</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44701</v>
+      </c>
+      <c r="G27" s="25">
+        <v>12050</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>44700</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="23">
+        <v>6615</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44701</v>
+      </c>
+      <c r="G28" s="25">
+        <v>6615</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44701</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="23">
+        <v>25704</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44702</v>
+      </c>
+      <c r="G29" s="25">
+        <v>25704</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44702</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="23">
+        <v>14967</v>
+      </c>
+      <c r="F30" s="24">
+        <v>44703</v>
+      </c>
+      <c r="G30" s="25">
+        <v>14967</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44702</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2579</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44703</v>
+      </c>
+      <c r="G31" s="25">
+        <v>2579</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44703</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="23">
+        <v>5922</v>
+      </c>
+      <c r="F32" s="24">
+        <v>44704</v>
+      </c>
+      <c r="G32" s="25">
+        <v>5922</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44703</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="23">
+        <v>14579</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14579</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44704</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="23">
+        <v>8482</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44704</v>
+      </c>
+      <c r="G34" s="25">
+        <v>8482</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7504,16 +7600,16 @@
       <c r="D59" s="2"/>
       <c r="E59" s="49">
         <f>SUM(E4:E58)</f>
-        <v>262395</v>
+        <v>353293</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="49">
         <f>SUM(G4:G58)</f>
-        <v>244334</v>
+        <v>338198</v>
       </c>
       <c r="H59" s="50">
         <f>SUM(H4:H58)</f>
-        <v>18061</v>
+        <v>15095</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -7557,7 +7653,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="72">
         <f>E59-G59</f>
-        <v>18061</v>
+        <v>15095</v>
       </c>
       <c r="F63" s="73"/>
       <c r="G63" s="74"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>MICH</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>JOSE CABRERA</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -721,6 +727,16 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1196,13 +1212,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1249,13 +1265,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4845,7 +4861,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6343,10 +6359,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6434,7 +6450,7 @@
         <v>303</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H58" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H52" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -6469,7 +6485,7 @@
         <v>44684</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B57" si="1">B5+1</f>
+        <f t="shared" ref="B6:B50" si="1">B5+1</f>
         <v>213</v>
       </c>
       <c r="C6" s="16"/>
@@ -7184,7 +7200,7 @@
         <v>14579</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>44704</v>
       </c>
@@ -7210,30 +7226,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15">
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76">
+        <v>44705</v>
+      </c>
+      <c r="B35" s="77">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="23">
+        <v>437</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G35" s="25">
+        <v>437</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15">
+      <c r="A36" s="76"/>
+      <c r="B36" s="77">
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79" t="s">
+        <v>29</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
@@ -7243,29 +7271,41 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15">
+      <c r="A37" s="76">
+        <v>44706</v>
+      </c>
+      <c r="B37" s="77">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="23">
+        <v>5200</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44708</v>
+      </c>
+      <c r="G37" s="25">
+        <v>5200</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="27"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79" t="s">
+        <v>29</v>
+      </c>
       <c r="E38" s="23"/>
       <c r="F38" s="35"/>
       <c r="G38" s="36"/>
@@ -7274,343 +7314,419 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="76">
+        <v>44707</v>
+      </c>
+      <c r="B39" s="77">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="23">
+        <v>14702</v>
+      </c>
+      <c r="F39" s="24">
+        <v>44708</v>
+      </c>
+      <c r="G39" s="25">
+        <v>14702</v>
+      </c>
       <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="76">
+        <v>44707</v>
+      </c>
+      <c r="B40" s="77">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="23">
+        <v>6213</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44708</v>
+      </c>
+      <c r="G40" s="25">
+        <v>6213</v>
+      </c>
       <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>248</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="24">
+        <v>44708</v>
+      </c>
+      <c r="G41" s="25">
+        <v>2000</v>
+      </c>
       <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>249</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="23">
+        <v>20452</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G42" s="25">
+        <v>20452</v>
+      </c>
       <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="23">
+        <v>15961</v>
+      </c>
+      <c r="F43" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G43" s="25">
+        <v>15961</v>
+      </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>251</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="23">
+        <v>10453</v>
+      </c>
+      <c r="F44" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G44" s="25">
+        <v>10453</v>
+      </c>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44708</v>
+      </c>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>252</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="D45" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="23">
+        <v>1609</v>
+      </c>
+      <c r="F45" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1609</v>
+      </c>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>44709</v>
+      </c>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>253</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="23">
+        <v>6960</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44707</v>
+      </c>
+      <c r="G46" s="25">
+        <v>6960</v>
+      </c>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>44709</v>
+      </c>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>254</v>
       </c>
       <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
+      <c r="D47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="23">
+        <v>11856</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>11856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>44709</v>
+      </c>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>255</v>
       </c>
       <c r="C48" s="38"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="23">
+        <v>4595</v>
+      </c>
+      <c r="F48" s="24">
+        <v>44709</v>
+      </c>
+      <c r="G48" s="25">
+        <v>4595</v>
+      </c>
       <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44710</v>
+      </c>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>256</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23">
+        <v>16698</v>
+      </c>
+      <c r="F49" s="24">
+        <v>44710</v>
+      </c>
+      <c r="G49" s="25">
+        <v>16698</v>
+      </c>
       <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>44710</v>
+      </c>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>257</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="23">
+        <v>12761</v>
+      </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
+        <v>12761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="29"/>
       <c r="D51" s="27"/>
       <c r="E51" s="23"/>
       <c r="F51" s="24"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43">
-        <v>0</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43">
+        <v>0</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="49">
+        <f>SUM(E4:E52)</f>
+        <v>483190</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49">
+        <f>SUM(G4:G52)</f>
+        <v>443478</v>
+      </c>
+      <c r="H53" s="50">
+        <f>SUM(H4:H52)</f>
+        <v>39712</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="54"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="72">
+        <f>E53-G53</f>
+        <v>39712</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="49">
-        <f>SUM(E4:E58)</f>
-        <v>353293</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49">
-        <f>SUM(G4:G58)</f>
-        <v>338198</v>
-      </c>
-      <c r="H59" s="50">
-        <f>SUM(H4:H58)</f>
-        <v>15095</v>
-      </c>
+      <c r="E59" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7620,43 +7736,34 @@
       <c r="E60" s="51"/>
       <c r="F60" s="52"/>
       <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="54"/>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="57"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="59"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="47"/>
       <c r="C62" s="48"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="55"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="54"/>
+      <c r="G62" s="53"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="72">
-        <f>E59-G59</f>
-        <v>15095</v>
-      </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -7668,18 +7775,16 @@
       <c r="G64" s="53"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="47"/>
       <c r="C66" s="48"/>
       <c r="D66" s="2"/>
@@ -7688,17 +7793,16 @@
       <c r="G66" s="53"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="59"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="47"/>
       <c r="C68" s="48"/>
       <c r="D68" s="2"/>
@@ -7707,7 +7811,7 @@
       <c r="G68" s="53"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="47"/>
       <c r="C69" s="48"/>
       <c r="D69" s="2"/>
@@ -7716,7 +7820,7 @@
       <c r="G69" s="53"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="47"/>
       <c r="C70" s="48"/>
       <c r="D70" s="2"/>
@@ -7725,66 +7829,12 @@
       <c r="G70" s="53"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="I76" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E59:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  ABASTOS  HERRADURA   MAYO   2022.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="30">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>MICH</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>JOSE CABRERA</t>
@@ -552,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,16 +724,21 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6362,7 +6364,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7193,11 +7195,15 @@
       <c r="E33" s="23">
         <v>14579</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="76">
+        <v>44705</v>
+      </c>
+      <c r="G33" s="77">
+        <v>14579</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>14579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7227,15 +7233,15 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76">
+      <c r="A35" s="78">
         <v>44705</v>
       </c>
-      <c r="B35" s="77">
+      <c r="B35" s="79">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="80" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="23">
@@ -7253,34 +7259,42 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77">
+      <c r="A36" s="78">
+        <v>44706</v>
+      </c>
+      <c r="B36" s="79">
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="23">
+        <v>11727</v>
+      </c>
+      <c r="F36" s="76">
+        <v>44707</v>
+      </c>
+      <c r="G36" s="77">
+        <v>11727</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>44706</v>
+      </c>
+      <c r="B37" s="79">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="80" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="76">
-        <v>44706</v>
-      </c>
-      <c r="B37" s="77">
-        <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79" t="s">
-        <v>30</v>
       </c>
       <c r="E37" s="23">
         <v>5200</v>
@@ -7297,33 +7311,41 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77">
+      <c r="A38" s="78">
+        <v>44707</v>
+      </c>
+      <c r="B38" s="79">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="23">
+        <v>4991</v>
+      </c>
+      <c r="F38" s="81">
+        <v>44707</v>
+      </c>
+      <c r="G38" s="82">
+        <v>4991</v>
+      </c>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="76">
+      <c r="A39" s="78">
         <v>44707</v>
       </c>
-      <c r="B39" s="77">
+      <c r="B39" s="79">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="38"/>
+      <c r="D39" s="80" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="23">
@@ -7341,15 +7363,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="76">
+      <c r="A40" s="78">
         <v>44707</v>
       </c>
-      <c r="B40" s="77">
+      <c r="B40" s="79">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="80" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="23">
@@ -7376,7 +7398,7 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="23">
         <v>2000</v>
@@ -7650,16 +7672,16 @@
       <c r="D53" s="2"/>
       <c r="E53" s="49">
         <f>SUM(E4:E52)</f>
-        <v>483190</v>
+        <v>499908</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="49">
         <f>SUM(G4:G52)</f>
-        <v>443478</v>
+        <v>474775</v>
       </c>
       <c r="H53" s="50">
         <f>SUM(H4:H52)</f>
-        <v>39712</v>
+        <v>25133</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -7703,7 +7725,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="72">
         <f>E53-G53</f>
-        <v>39712</v>
+        <v>25133</v>
       </c>
       <c r="F57" s="73"/>
       <c r="G57" s="74"/>
